--- a/src/constants/i18n/script/i18n.xlsx
+++ b/src/constants/i18n/script/i18n.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="common"/>
@@ -765,10 +765,10 @@
     <t>aFewSecondsAgo</t>
   </si>
   <si>
-    <t>几秒前</t>
+    <t>{secs}秒前</t>
   </si>
   <si>
-    <t>a few seconds ago</t>
+    <t>{secs} secs ago</t>
   </si>
   <si>
     <t>halfAMinuteAgo</t>
@@ -1487,7 +1487,7 @@
   </sheetPr>
   <dimension ref="A1:Z194"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7269,7 +7269,7 @@
   </sheetPr>
   <dimension ref="A1:Z195"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7437,7 +7437,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A5" s="2" t="s">
         <v>97</v>
       </c>
@@ -7471,7 +7471,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A6" s="2" t="s">
         <v>100</v>
       </c>
@@ -7505,7 +7505,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A7" s="2" t="s">
         <v>103</v>
       </c>
@@ -7539,7 +7539,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A8" s="2" t="s">
         <v>106</v>
       </c>
